--- a/IP_1mm.xlsx
+++ b/IP_1mm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomol\.spyder-py3\MT-1\IP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F32C90-E0E5-43D3-B771-C1780341127E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A5A457-3982-4277-9742-9D60514F61C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Last" sheetId="1" r:id="rId1"/>
@@ -3366,8 +3366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B13F45-BF79-44E2-967D-281CC3DC74BB}">
   <dimension ref="A2:M183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M183"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="P94" sqref="P94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6032,10 +6032,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE46A034-52F7-471C-AE54-DD86F733C445}">
-  <dimension ref="A2:M157"/>
+  <dimension ref="A2:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6767,237 +6767,97 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>54</v>
       </c>
-      <c r="B96">
+      <c r="B100">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>51</v>
       </c>
-      <c r="B97">
+      <c r="B101">
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>55</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B102" t="s">
         <v>56</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C102" t="s">
         <v>57</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D102" t="s">
         <v>58</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E102" t="s">
         <v>59</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F102" t="s">
         <v>60</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G102" t="s">
         <v>61</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H102" t="s">
         <v>62</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I102" t="s">
         <v>63</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J102" t="s">
         <v>64</v>
       </c>
-      <c r="K98" t="s">
+      <c r="K102" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>-4.49</v>
-      </c>
-      <c r="B99">
-        <v>55.582999999999998</v>
-      </c>
-      <c r="C99">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="D99">
-        <v>-4.49</v>
-      </c>
-      <c r="E99">
-        <v>-2E-3</v>
-      </c>
-      <c r="F99">
-        <v>17.242000000000001</v>
-      </c>
-      <c r="G99">
-        <v>3.6749999999999998</v>
-      </c>
-      <c r="H99">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="I99">
-        <v>2.831</v>
-      </c>
-      <c r="J99">
-        <v>10.101000000000001</v>
-      </c>
-      <c r="K99">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>6.2</v>
-      </c>
-      <c r="B100">
-        <v>62.890999999999998</v>
-      </c>
-      <c r="C100">
-        <v>6.3E-2</v>
-      </c>
-      <c r="D100">
-        <v>6.2</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>16.303000000000001</v>
-      </c>
-      <c r="G100">
-        <v>5.4470000000000001</v>
-      </c>
-      <c r="H100">
-        <v>1.4490000000000001</v>
-      </c>
-      <c r="I100">
-        <v>3.9980000000000002</v>
-      </c>
-      <c r="J100">
-        <v>8.0259999999999998</v>
-      </c>
-      <c r="K100">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>16.89</v>
-      </c>
-      <c r="B101">
-        <v>70.253</v>
-      </c>
-      <c r="C101">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D101">
-        <v>16.89</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>15.38</v>
-      </c>
-      <c r="G101">
-        <v>7.7119999999999997</v>
-      </c>
-      <c r="H101">
-        <v>2.23</v>
-      </c>
-      <c r="I101">
-        <v>5.4820000000000002</v>
-      </c>
-      <c r="J101">
-        <v>6.3070000000000004</v>
-      </c>
-      <c r="K101">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>27.58</v>
-      </c>
-      <c r="B102">
-        <v>77.548000000000002</v>
-      </c>
-      <c r="C102">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D102">
-        <v>27.58</v>
-      </c>
-      <c r="E102">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F102">
-        <v>14.487</v>
-      </c>
-      <c r="G102">
-        <v>10.474</v>
-      </c>
-      <c r="H102">
-        <v>3.1760000000000002</v>
-      </c>
-      <c r="I102">
-        <v>7.298</v>
-      </c>
-      <c r="J102">
-        <v>4.7869999999999999</v>
-      </c>
-      <c r="K102">
-        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>38.270000000000003</v>
+        <v>-4.49</v>
       </c>
       <c r="B103">
-        <v>84.533000000000001</v>
+        <v>55.582999999999998</v>
       </c>
       <c r="C103">
-        <v>8.5000000000000006E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D103">
-        <v>38.270000000000003</v>
+        <v>-4.49</v>
       </c>
       <c r="E103">
-        <v>7.0000000000000001E-3</v>
+        <v>-2E-3</v>
       </c>
       <c r="F103">
-        <v>13.667</v>
+        <v>17.242000000000001</v>
       </c>
       <c r="G103">
-        <v>13.609</v>
+        <v>3.6749999999999998</v>
       </c>
       <c r="H103">
-        <v>4.2359999999999998</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="I103">
-        <v>9.3719999999999999</v>
+        <v>2.831</v>
       </c>
       <c r="J103">
-        <v>3.427</v>
+        <v>10.101000000000001</v>
       </c>
       <c r="K103">
         <v>21</v>
@@ -7005,34 +6865,34 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>48.96</v>
+        <v>6.2</v>
       </c>
       <c r="B104">
-        <v>90.924000000000007</v>
+        <v>62.890999999999998</v>
       </c>
       <c r="C104">
-        <v>9.0999999999999998E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D104">
-        <v>48.96</v>
+        <v>6.2</v>
       </c>
       <c r="E104">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>12.92</v>
+        <v>16.303000000000001</v>
       </c>
       <c r="G104">
-        <v>16.952000000000002</v>
+        <v>5.4470000000000001</v>
       </c>
       <c r="H104">
-        <v>5.3550000000000004</v>
+        <v>1.4490000000000001</v>
       </c>
       <c r="I104">
-        <v>11.597</v>
+        <v>3.9980000000000002</v>
       </c>
       <c r="J104">
-        <v>2.2349999999999999</v>
+        <v>8.0259999999999998</v>
       </c>
       <c r="K104">
         <v>21</v>
@@ -7040,34 +6900,34 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>59.65</v>
+        <v>16.89</v>
       </c>
       <c r="B105">
-        <v>96.382000000000005</v>
+        <v>70.253</v>
       </c>
       <c r="C105">
-        <v>9.6000000000000002E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D105">
-        <v>59.65</v>
+        <v>16.89</v>
       </c>
       <c r="E105">
-        <v>-2E-3</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>12.3</v>
+        <v>15.38</v>
       </c>
       <c r="G105">
-        <v>20.172000000000001</v>
+        <v>7.7119999999999997</v>
       </c>
       <c r="H105">
-        <v>6.4210000000000003</v>
+        <v>2.23</v>
       </c>
       <c r="I105">
-        <v>13.75</v>
+        <v>5.4820000000000002</v>
       </c>
       <c r="J105">
-        <v>1.2450000000000001</v>
+        <v>6.3070000000000004</v>
       </c>
       <c r="K105">
         <v>21</v>
@@ -7075,34 +6935,34 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>70.34</v>
+        <v>27.58</v>
       </c>
       <c r="B106">
-        <v>100.495</v>
+        <v>77.548000000000002</v>
       </c>
       <c r="C106">
-        <v>0.1</v>
+        <v>7.8E-2</v>
       </c>
       <c r="D106">
-        <v>70.34</v>
+        <v>27.58</v>
       </c>
       <c r="E106">
-        <v>2E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F106">
-        <v>11.835000000000001</v>
+        <v>14.487</v>
       </c>
       <c r="G106">
-        <v>22.847000000000001</v>
+        <v>10.474</v>
       </c>
       <c r="H106">
-        <v>7.2990000000000004</v>
+        <v>3.1760000000000002</v>
       </c>
       <c r="I106">
-        <v>15.547000000000001</v>
+        <v>7.298</v>
       </c>
       <c r="J106">
-        <v>0.51200000000000001</v>
+        <v>4.7869999999999999</v>
       </c>
       <c r="K106">
         <v>21</v>
@@ -7110,34 +6970,34 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>81.03</v>
+        <v>38.270000000000003</v>
       </c>
       <c r="B107">
-        <v>102.833</v>
+        <v>84.533000000000001</v>
       </c>
       <c r="C107">
-        <v>0.10299999999999999</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D107">
-        <v>81.03</v>
+        <v>38.270000000000003</v>
       </c>
       <c r="E107">
-        <v>4.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F107">
-        <v>11.577999999999999</v>
+        <v>13.667</v>
       </c>
       <c r="G107">
-        <v>24.468</v>
+        <v>13.609</v>
       </c>
       <c r="H107">
-        <v>7.819</v>
+        <v>4.2359999999999998</v>
       </c>
       <c r="I107">
-        <v>16.648</v>
+        <v>9.3719999999999999</v>
       </c>
       <c r="J107">
-        <v>9.9000000000000005E-2</v>
+        <v>3.427</v>
       </c>
       <c r="K107">
         <v>21</v>
@@ -7145,34 +7005,34 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>91.72</v>
+        <v>48.96</v>
       </c>
       <c r="B108">
-        <v>103.399</v>
+        <v>90.924000000000007</v>
       </c>
       <c r="C108">
-        <v>0.10299999999999999</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D108">
-        <v>91.72</v>
+        <v>48.96</v>
       </c>
       <c r="E108">
-        <v>4.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F108">
-        <v>11.51</v>
+        <v>12.92</v>
       </c>
       <c r="G108">
-        <v>24.881</v>
+        <v>16.952000000000002</v>
       </c>
       <c r="H108">
-        <v>7.9539999999999997</v>
+        <v>5.3550000000000004</v>
       </c>
       <c r="I108">
-        <v>16.925999999999998</v>
+        <v>11.597</v>
       </c>
       <c r="J108">
-        <v>-1E-3</v>
+        <v>2.2349999999999999</v>
       </c>
       <c r="K108">
         <v>21</v>
@@ -7180,34 +7040,34 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>102.41</v>
+        <v>59.65</v>
       </c>
       <c r="B109">
-        <v>103.4</v>
+        <v>96.382000000000005</v>
       </c>
       <c r="C109">
-        <v>0.10299999999999999</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="D109">
-        <v>102.41</v>
+        <v>59.65</v>
       </c>
       <c r="E109">
-        <v>4.0000000000000001E-3</v>
+        <v>-2E-3</v>
       </c>
       <c r="F109">
-        <v>11.51</v>
+        <v>12.3</v>
       </c>
       <c r="G109">
-        <v>24.88</v>
+        <v>20.172000000000001</v>
       </c>
       <c r="H109">
-        <v>7.9539999999999997</v>
+        <v>6.4210000000000003</v>
       </c>
       <c r="I109">
-        <v>16.925000000000001</v>
+        <v>13.75</v>
       </c>
       <c r="J109">
-        <v>-1E-3</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="K109">
         <v>21</v>
@@ -7215,34 +7075,34 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>113.1</v>
+        <v>70.34</v>
       </c>
       <c r="B110">
-        <v>103.4</v>
+        <v>100.495</v>
       </c>
       <c r="C110">
-        <v>0.10299999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="D110">
-        <v>113.1</v>
+        <v>70.34</v>
       </c>
       <c r="E110">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F110">
-        <v>11.51</v>
+        <v>11.835000000000001</v>
       </c>
       <c r="G110">
-        <v>24.88</v>
+        <v>22.847000000000001</v>
       </c>
       <c r="H110">
-        <v>7.9539999999999997</v>
+        <v>7.2990000000000004</v>
       </c>
       <c r="I110">
-        <v>16.925000000000001</v>
+        <v>15.547000000000001</v>
       </c>
       <c r="J110">
-        <v>-1E-3</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="K110">
         <v>21</v>
@@ -7250,34 +7110,34 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>123.79</v>
+        <v>81.03</v>
       </c>
       <c r="B111">
-        <v>103.4</v>
+        <v>102.833</v>
       </c>
       <c r="C111">
         <v>0.10299999999999999</v>
       </c>
       <c r="D111">
-        <v>123.79</v>
+        <v>81.03</v>
       </c>
       <c r="E111">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="F111">
-        <v>11.51</v>
+        <v>11.577999999999999</v>
       </c>
       <c r="G111">
-        <v>24.88</v>
+        <v>24.468</v>
       </c>
       <c r="H111">
-        <v>7.9539999999999997</v>
+        <v>7.819</v>
       </c>
       <c r="I111">
-        <v>16.925000000000001</v>
+        <v>16.648</v>
       </c>
       <c r="J111">
-        <v>-1E-3</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="K111">
         <v>21</v>
@@ -7285,7 +7145,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>134.47999999999999</v>
+        <v>91.72</v>
       </c>
       <c r="B112">
         <v>103.399</v>
@@ -7294,7 +7154,7 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="D112">
-        <v>134.47999999999999</v>
+        <v>91.72</v>
       </c>
       <c r="E112">
         <v>4.0000000000000001E-3</v>
@@ -7303,13 +7163,13 @@
         <v>11.51</v>
       </c>
       <c r="G112">
-        <v>24.878</v>
+        <v>24.881</v>
       </c>
       <c r="H112">
         <v>7.9539999999999997</v>
       </c>
       <c r="I112">
-        <v>16.923999999999999</v>
+        <v>16.925999999999998</v>
       </c>
       <c r="J112">
         <v>-1E-3</v>
@@ -7320,34 +7180,34 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>145.16999999999999</v>
+        <v>102.41</v>
       </c>
       <c r="B113">
-        <v>103.054</v>
+        <v>103.4</v>
       </c>
       <c r="C113">
         <v>0.10299999999999999</v>
       </c>
       <c r="D113">
-        <v>145.16999999999999</v>
+        <v>102.41</v>
       </c>
       <c r="E113">
-        <v>7.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F113">
-        <v>11.519</v>
+        <v>11.51</v>
       </c>
       <c r="G113">
-        <v>24.613</v>
+        <v>24.88</v>
       </c>
       <c r="H113">
-        <v>7.9109999999999996</v>
+        <v>7.9539999999999997</v>
       </c>
       <c r="I113">
-        <v>16.702000000000002</v>
+        <v>16.925000000000001</v>
       </c>
       <c r="J113">
-        <v>1E-3</v>
+        <v>-1E-3</v>
       </c>
       <c r="K113">
         <v>21</v>
@@ -7355,34 +7215,34 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>155.86000000000001</v>
+        <v>113.1</v>
       </c>
       <c r="B114">
-        <v>101.18600000000001</v>
+        <v>103.4</v>
       </c>
       <c r="C114">
-        <v>0.10100000000000001</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D114">
-        <v>155.86000000000001</v>
+        <v>113.1</v>
       </c>
       <c r="E114">
-        <v>-1.2E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F114">
-        <v>11.551</v>
+        <v>11.51</v>
       </c>
       <c r="G114">
-        <v>23.338000000000001</v>
+        <v>24.88</v>
       </c>
       <c r="H114">
-        <v>7.6870000000000003</v>
+        <v>7.9539999999999997</v>
       </c>
       <c r="I114">
-        <v>15.651</v>
+        <v>16.925000000000001</v>
       </c>
       <c r="J114">
-        <v>8.0000000000000002E-3</v>
+        <v>-1E-3</v>
       </c>
       <c r="K114">
         <v>21</v>
@@ -7390,34 +7250,34 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>166.55</v>
+        <v>123.79</v>
       </c>
       <c r="B115">
-        <v>97.790999999999997</v>
+        <v>103.4</v>
       </c>
       <c r="C115">
-        <v>9.8000000000000004E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D115">
-        <v>166.55</v>
+        <v>123.79</v>
       </c>
       <c r="E115">
-        <v>-3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F115">
-        <v>11.602</v>
+        <v>11.51</v>
       </c>
       <c r="G115">
-        <v>21.085000000000001</v>
+        <v>24.88</v>
       </c>
       <c r="H115">
-        <v>7.2830000000000004</v>
+        <v>7.9539999999999997</v>
       </c>
       <c r="I115">
-        <v>13.802</v>
+        <v>16.925000000000001</v>
       </c>
       <c r="J115">
-        <v>1.7000000000000001E-2</v>
+        <v>-1E-3</v>
       </c>
       <c r="K115">
         <v>21</v>
@@ -7425,34 +7285,34 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>177.24</v>
+        <v>134.47999999999999</v>
       </c>
       <c r="B116">
-        <v>92.504000000000005</v>
+        <v>103.399</v>
       </c>
       <c r="C116">
-        <v>9.1999999999999998E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D116">
-        <v>177.24</v>
+        <v>134.47999999999999</v>
       </c>
       <c r="E116">
-        <v>-2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F116">
-        <v>11.653</v>
+        <v>11.51</v>
       </c>
       <c r="G116">
-        <v>17.93</v>
+        <v>24.878</v>
       </c>
       <c r="H116">
-        <v>6.702</v>
+        <v>7.9539999999999997</v>
       </c>
       <c r="I116">
-        <v>11.228</v>
+        <v>16.923999999999999</v>
       </c>
       <c r="J116">
-        <v>2.1000000000000001E-2</v>
+        <v>-1E-3</v>
       </c>
       <c r="K116">
         <v>21</v>
@@ -7460,34 +7320,34 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>187.93</v>
+        <v>145.16999999999999</v>
       </c>
       <c r="B117">
-        <v>84.906999999999996</v>
+        <v>103.054</v>
       </c>
       <c r="C117">
-        <v>8.5000000000000006E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D117">
-        <v>187.93</v>
+        <v>145.16999999999999</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F117">
-        <v>11.691000000000001</v>
+        <v>11.519</v>
       </c>
       <c r="G117">
-        <v>13.917</v>
+        <v>24.613</v>
       </c>
       <c r="H117">
-        <v>5.8959999999999999</v>
+        <v>7.9109999999999996</v>
       </c>
       <c r="I117">
-        <v>8.0210000000000008</v>
+        <v>16.702000000000002</v>
       </c>
       <c r="J117">
-        <v>1.9E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="K117">
         <v>21</v>
@@ -7495,34 +7355,34 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>198.62</v>
+        <v>155.86000000000001</v>
       </c>
       <c r="B118">
-        <v>74.721999999999994</v>
+        <v>101.18600000000001</v>
       </c>
       <c r="C118">
-        <v>7.4999999999999997E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="D118">
-        <v>198.62</v>
+        <v>155.86000000000001</v>
       </c>
       <c r="E118">
-        <v>1E-3</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="F118">
-        <v>11.705</v>
+        <v>11.551</v>
       </c>
       <c r="G118">
-        <v>9.4990000000000006</v>
+        <v>23.338000000000001</v>
       </c>
       <c r="H118">
-        <v>4.8470000000000004</v>
+        <v>7.6870000000000003</v>
       </c>
       <c r="I118">
-        <v>4.6520000000000001</v>
+        <v>15.651</v>
       </c>
       <c r="J118">
-        <v>1.2E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="K118">
         <v>21</v>
@@ -7530,34 +7390,34 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>209.31</v>
+        <v>166.55</v>
       </c>
       <c r="B119">
-        <v>61.835000000000001</v>
+        <v>97.790999999999997</v>
       </c>
       <c r="C119">
-        <v>6.2E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="D119">
-        <v>209.31</v>
+        <v>166.55</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="F119">
-        <v>11.663</v>
+        <v>11.602</v>
       </c>
       <c r="G119">
-        <v>5.3220000000000001</v>
+        <v>21.085000000000001</v>
       </c>
       <c r="H119">
-        <v>3.5339999999999998</v>
+        <v>7.2830000000000004</v>
       </c>
       <c r="I119">
-        <v>1.7869999999999999</v>
+        <v>13.802</v>
       </c>
       <c r="J119">
-        <v>1E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="K119">
         <v>21</v>
@@ -7565,279 +7425,360 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
+        <v>177.24</v>
+      </c>
+      <c r="B120">
+        <v>92.504000000000005</v>
+      </c>
+      <c r="C120">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D120">
+        <v>177.24</v>
+      </c>
+      <c r="E120">
+        <v>-2E-3</v>
+      </c>
+      <c r="F120">
+        <v>11.653</v>
+      </c>
+      <c r="G120">
+        <v>17.93</v>
+      </c>
+      <c r="H120">
+        <v>6.702</v>
+      </c>
+      <c r="I120">
+        <v>11.228</v>
+      </c>
+      <c r="J120">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K120">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>187.93</v>
+      </c>
+      <c r="B121">
+        <v>84.906999999999996</v>
+      </c>
+      <c r="C121">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D121">
+        <v>187.93</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>11.691000000000001</v>
+      </c>
+      <c r="G121">
+        <v>13.917</v>
+      </c>
+      <c r="H121">
+        <v>5.8959999999999999</v>
+      </c>
+      <c r="I121">
+        <v>8.0210000000000008</v>
+      </c>
+      <c r="J121">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K121">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>198.62</v>
+      </c>
+      <c r="B122">
+        <v>74.721999999999994</v>
+      </c>
+      <c r="C122">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D122">
+        <v>198.62</v>
+      </c>
+      <c r="E122">
+        <v>1E-3</v>
+      </c>
+      <c r="F122">
+        <v>11.705</v>
+      </c>
+      <c r="G122">
+        <v>9.4990000000000006</v>
+      </c>
+      <c r="H122">
+        <v>4.8470000000000004</v>
+      </c>
+      <c r="I122">
+        <v>4.6520000000000001</v>
+      </c>
+      <c r="J122">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K122">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>209.31</v>
+      </c>
+      <c r="B123">
+        <v>61.835000000000001</v>
+      </c>
+      <c r="C123">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D123">
+        <v>209.31</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>11.663</v>
+      </c>
+      <c r="G123">
+        <v>5.3220000000000001</v>
+      </c>
+      <c r="H123">
+        <v>3.5339999999999998</v>
+      </c>
+      <c r="I123">
+        <v>1.7869999999999999</v>
+      </c>
+      <c r="J123">
+        <v>1E-3</v>
+      </c>
+      <c r="K123">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>220</v>
       </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
         <v>220</v>
       </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
         <v>14.34</v>
       </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>66</v>
-      </c>
-      <c r="B122">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>67</v>
-      </c>
-      <c r="B123">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>68</v>
-      </c>
-      <c r="B124">
-        <v>21</v>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>69</v>
-      </c>
-      <c r="B125">
-        <v>2.6989999999999998</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B126">
-        <v>0.98</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B127">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B128">
-        <v>40260.036999999997</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B129">
-        <v>53</v>
+        <v>2.6989999999999998</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="B130">
-        <v>10</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B131">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B132">
-        <v>65</v>
+        <v>40260.036999999997</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B133">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B137">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="B138">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B139">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B140">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="B143">
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>11</v>
+        <v>82</v>
+      </c>
+      <c r="B144">
+        <v>30</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>85</v>
-      </c>
-      <c r="B145" t="s">
-        <v>86</v>
-      </c>
-      <c r="C145" t="s">
-        <v>87</v>
-      </c>
-      <c r="D145" t="s">
-        <v>88</v>
-      </c>
-      <c r="E145" t="s">
-        <v>89</v>
-      </c>
-      <c r="F145" t="s">
-        <v>90</v>
-      </c>
-      <c r="G145" t="s">
-        <v>91</v>
-      </c>
-      <c r="H145" t="s">
-        <v>92</v>
-      </c>
-      <c r="I145" t="s">
-        <v>93</v>
-      </c>
-      <c r="J145" t="s">
-        <v>94</v>
-      </c>
-      <c r="K145" t="s">
-        <v>95</v>
-      </c>
-      <c r="L145" t="s">
-        <v>96</v>
-      </c>
-      <c r="M145" t="s">
-        <v>97</v>
+        <v>83</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>12</v>
+        <v>84</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>51</v>
-      </c>
-      <c r="B148">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -7883,39 +7824,98 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>114</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>14</v>
+        <v>51</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="B153" t="s">
-        <v>98</v>
+        <v>86</v>
+      </c>
+      <c r="C153" t="s">
+        <v>87</v>
+      </c>
+      <c r="D153" t="s">
+        <v>88</v>
+      </c>
+      <c r="E153" t="s">
+        <v>89</v>
+      </c>
+      <c r="F153" t="s">
+        <v>90</v>
+      </c>
+      <c r="G153" t="s">
+        <v>91</v>
+      </c>
+      <c r="H153" t="s">
+        <v>92</v>
+      </c>
+      <c r="I153" t="s">
+        <v>93</v>
+      </c>
+      <c r="J153" t="s">
+        <v>94</v>
+      </c>
+      <c r="K153" t="s">
+        <v>95</v>
+      </c>
+      <c r="L153" t="s">
+        <v>96</v>
+      </c>
+      <c r="M153" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>115</v>
+      </c>
+      <c r="B157" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>116</v>
       </c>
     </row>
